--- a/xlsx/nor_oda_climate_tenyear.xlsx
+++ b/xlsx/nor_oda_climate_tenyear.xlsx
@@ -361,14 +361,14 @@
     <row r="1" s="1" customFormat="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Beskrivelse</t>
+          <t>Metadata</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>XXX</t>
+          <t>Arkfane Figurdata viser data for Bistand til klimaformål (utslippsreduksjon og tilpasning), fordelt på øremerket støtte og multilateral kjernestøtte (beregnet), 2014-2023. Beløp er utbetalinger i NOK mrd.</t>
         </is>
       </c>
     </row>
@@ -379,7 +379,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D21"/>
+  <dimension ref="A1:C21"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -393,17 +393,12 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>climate_oda_channel</t>
+          <t>climate_oda_channel_no</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
           <t>climate_oda_nok_bill</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>climate_oda_channel_no</t>
         </is>
       </c>
     </row>
@@ -413,16 +408,11 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Earmarked climate ODA</t>
+          <t>Øremerket støtte til klimaformål</t>
         </is>
       </c>
       <c r="C2">
         <v>4.9667841748248</v>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>Øremerket støtte til klimaformål</t>
-        </is>
       </c>
     </row>
     <row r="3">
@@ -431,16 +421,11 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Imputed multilateral climate ODA</t>
+          <t>Multilateral kjernestøtte til klimaformål (beregnet)</t>
         </is>
       </c>
       <c r="C3">
         <v>0.802883004975953</v>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>Multilateral kjernestøtte til klimaformål (beregnet)</t>
-        </is>
       </c>
     </row>
     <row r="4">
@@ -449,16 +434,11 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Earmarked climate ODA</t>
+          <t>Øremerket støtte til klimaformål</t>
         </is>
       </c>
       <c r="C4">
         <v>4.887449690322312</v>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>Øremerket støtte til klimaformål</t>
-        </is>
       </c>
     </row>
     <row r="5">
@@ -467,16 +447,11 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Imputed multilateral climate ODA</t>
+          <t>Multilateral kjernestøtte til klimaformål (beregnet)</t>
         </is>
       </c>
       <c r="C5">
         <v>0.9448341514009483</v>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>Multilateral kjernestøtte til klimaformål (beregnet)</t>
-        </is>
       </c>
     </row>
     <row r="6">
@@ -485,16 +460,11 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Earmarked climate ODA</t>
+          <t>Øremerket støtte til klimaformål</t>
         </is>
       </c>
       <c r="C6">
         <v>3.879354154125485</v>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>Øremerket støtte til klimaformål</t>
-        </is>
       </c>
     </row>
     <row r="7">
@@ -503,16 +473,11 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Imputed multilateral climate ODA</t>
+          <t>Multilateral kjernestøtte til klimaformål (beregnet)</t>
         </is>
       </c>
       <c r="C7">
         <v>0.9351203054033663</v>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>Multilateral kjernestøtte til klimaformål (beregnet)</t>
-        </is>
       </c>
     </row>
     <row r="8">
@@ -521,16 +486,11 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Earmarked climate ODA</t>
+          <t>Øremerket støtte til klimaformål</t>
         </is>
       </c>
       <c r="C8">
         <v>3.965365628719777</v>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>Øremerket støtte til klimaformål</t>
-        </is>
       </c>
     </row>
     <row r="9">
@@ -539,16 +499,11 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Imputed multilateral climate ODA</t>
+          <t>Multilateral kjernestøtte til klimaformål (beregnet)</t>
         </is>
       </c>
       <c r="C9">
         <v>1.156822392965039</v>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>Multilateral kjernestøtte til klimaformål (beregnet)</t>
-        </is>
       </c>
     </row>
     <row r="10">
@@ -557,16 +512,11 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Earmarked climate ODA</t>
+          <t>Øremerket støtte til klimaformål</t>
         </is>
       </c>
       <c r="C10">
         <v>4.696225596778123</v>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>Øremerket støtte til klimaformål</t>
-        </is>
       </c>
     </row>
     <row r="11">
@@ -575,16 +525,11 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Imputed multilateral climate ODA</t>
+          <t>Multilateral kjernestøtte til klimaformål (beregnet)</t>
         </is>
       </c>
       <c r="C11">
         <v>1.141258259771861</v>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>Multilateral kjernestøtte til klimaformål (beregnet)</t>
-        </is>
       </c>
     </row>
     <row r="12">
@@ -593,16 +538,11 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Earmarked climate ODA</t>
+          <t>Øremerket støtte til klimaformål</t>
         </is>
       </c>
       <c r="C12">
         <v>5.231819413617981</v>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>Øremerket støtte til klimaformål</t>
-        </is>
       </c>
     </row>
     <row r="13">
@@ -611,16 +551,11 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Imputed multilateral climate ODA</t>
+          <t>Multilateral kjernestøtte til klimaformål (beregnet)</t>
         </is>
       </c>
       <c r="C13">
         <v>1.367006220356732</v>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>Multilateral kjernestøtte til klimaformål (beregnet)</t>
-        </is>
       </c>
     </row>
     <row r="14">
@@ -629,16 +564,11 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Earmarked climate ODA</t>
+          <t>Øremerket støtte til klimaformål</t>
         </is>
       </c>
       <c r="C14">
         <v>4.213240136087784</v>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>Øremerket støtte til klimaformål</t>
-        </is>
       </c>
     </row>
     <row r="15">
@@ -647,16 +577,11 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Imputed multilateral climate ODA</t>
+          <t>Multilateral kjernestøtte til klimaformål (beregnet)</t>
         </is>
       </c>
       <c r="C15">
         <v>2.05659795661727</v>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>Multilateral kjernestøtte til klimaformål (beregnet)</t>
-        </is>
       </c>
     </row>
     <row r="16">
@@ -665,16 +590,11 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Earmarked climate ODA</t>
+          <t>Øremerket støtte til klimaformål</t>
         </is>
       </c>
       <c r="C16">
         <v>4.796903833906384</v>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>Øremerket støtte til klimaformål</t>
-        </is>
       </c>
     </row>
     <row r="17">
@@ -683,16 +603,11 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Imputed multilateral climate ODA</t>
+          <t>Multilateral kjernestøtte til klimaformål (beregnet)</t>
         </is>
       </c>
       <c r="C17">
         <v>1.609190374080396</v>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>Multilateral kjernestøtte til klimaformål (beregnet)</t>
-        </is>
       </c>
     </row>
     <row r="18">
@@ -701,16 +616,11 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>Earmarked climate ODA</t>
+          <t>Øremerket støtte til klimaformål</t>
         </is>
       </c>
       <c r="C18">
         <v>6.892094282469613</v>
-      </c>
-      <c r="D18" t="inlineStr">
-        <is>
-          <t>Øremerket støtte til klimaformål</t>
-        </is>
       </c>
     </row>
     <row r="19">
@@ -719,16 +629,11 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>Imputed multilateral climate ODA</t>
+          <t>Multilateral kjernestøtte til klimaformål (beregnet)</t>
         </is>
       </c>
       <c r="C19">
         <v>2.163679222283241</v>
-      </c>
-      <c r="D19" t="inlineStr">
-        <is>
-          <t>Multilateral kjernestøtte til klimaformål (beregnet)</t>
-        </is>
       </c>
     </row>
     <row r="20">
@@ -737,16 +642,11 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>Earmarked climate ODA</t>
+          <t>Øremerket støtte til klimaformål</t>
         </is>
       </c>
       <c r="C20">
         <v>8.434045120493945</v>
-      </c>
-      <c r="D20" t="inlineStr">
-        <is>
-          <t>Øremerket støtte til klimaformål</t>
-        </is>
       </c>
     </row>
     <row r="21">
@@ -755,16 +655,11 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>Imputed multilateral climate ODA</t>
+          <t>Multilateral kjernestøtte til klimaformål (beregnet)</t>
         </is>
       </c>
       <c r="C21">
         <v>2.459294444544891</v>
-      </c>
-      <c r="D21" t="inlineStr">
-        <is>
-          <t>Multilateral kjernestøtte til klimaformål (beregnet)</t>
-        </is>
       </c>
     </row>
   </sheetData>

--- a/xlsx/nor_oda_climate_tenyear.xlsx
+++ b/xlsx/nor_oda_climate_tenyear.xlsx
@@ -368,7 +368,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Arkfane Figurdata viser data for Bistand til klimaformål (utslippsreduksjon og tilpasning), fordelt på øremerket støtte og multilateral kjernestøtte (beregnet), 2014-2023. Beløp er utbetalinger i NOK mrd.</t>
+          <t>Arkfane Figurdata viser data for Bistand til klimaformål (utslippsreduksjon og tilpasning), fordelt på øremerket støtte og multilateral kjernestøtte (beregnet), 2015-2024. Beløp er utbetalinger i NOK mrd.</t>
         </is>
       </c>
     </row>
@@ -404,7 +404,7 @@
     </row>
     <row r="2">
       <c r="A2">
-        <v>2014</v>
+        <v>2015</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
@@ -412,12 +412,12 @@
         </is>
       </c>
       <c r="C2">
-        <v>4.9667841748248</v>
+        <v>4.887449690322312</v>
       </c>
     </row>
     <row r="3">
       <c r="A3">
-        <v>2014</v>
+        <v>2015</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
@@ -425,12 +425,12 @@
         </is>
       </c>
       <c r="C3">
-        <v>0.802883004975953</v>
+        <v>0.9448341514009483</v>
       </c>
     </row>
     <row r="4">
       <c r="A4">
-        <v>2015</v>
+        <v>2016</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
@@ -438,12 +438,12 @@
         </is>
       </c>
       <c r="C4">
-        <v>4.887449690322312</v>
+        <v>3.879354154125485</v>
       </c>
     </row>
     <row r="5">
       <c r="A5">
-        <v>2015</v>
+        <v>2016</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
@@ -451,12 +451,12 @@
         </is>
       </c>
       <c r="C5">
-        <v>0.9448341514009483</v>
+        <v>0.9351203054033663</v>
       </c>
     </row>
     <row r="6">
       <c r="A6">
-        <v>2016</v>
+        <v>2017</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
@@ -464,12 +464,12 @@
         </is>
       </c>
       <c r="C6">
-        <v>3.879354154125485</v>
+        <v>3.965365628719777</v>
       </c>
     </row>
     <row r="7">
       <c r="A7">
-        <v>2016</v>
+        <v>2017</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
@@ -477,12 +477,12 @@
         </is>
       </c>
       <c r="C7">
-        <v>0.9351203054033663</v>
+        <v>1.156822392965039</v>
       </c>
     </row>
     <row r="8">
       <c r="A8">
-        <v>2017</v>
+        <v>2018</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
@@ -490,12 +490,12 @@
         </is>
       </c>
       <c r="C8">
-        <v>3.965365628719777</v>
+        <v>4.696225596778123</v>
       </c>
     </row>
     <row r="9">
       <c r="A9">
-        <v>2017</v>
+        <v>2018</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
@@ -503,12 +503,12 @@
         </is>
       </c>
       <c r="C9">
-        <v>1.156822392965039</v>
+        <v>1.141258259771861</v>
       </c>
     </row>
     <row r="10">
       <c r="A10">
-        <v>2018</v>
+        <v>2019</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
@@ -516,12 +516,12 @@
         </is>
       </c>
       <c r="C10">
-        <v>4.696225596778123</v>
+        <v>5.231819413617981</v>
       </c>
     </row>
     <row r="11">
       <c r="A11">
-        <v>2018</v>
+        <v>2019</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
@@ -529,12 +529,12 @@
         </is>
       </c>
       <c r="C11">
-        <v>1.141258259771861</v>
+        <v>1.367006220356732</v>
       </c>
     </row>
     <row r="12">
       <c r="A12">
-        <v>2019</v>
+        <v>2020</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
@@ -542,12 +542,12 @@
         </is>
       </c>
       <c r="C12">
-        <v>5.231819413617981</v>
+        <v>4.213240136087784</v>
       </c>
     </row>
     <row r="13">
       <c r="A13">
-        <v>2019</v>
+        <v>2020</v>
       </c>
       <c r="B13" t="inlineStr">
         <is>
@@ -555,12 +555,12 @@
         </is>
       </c>
       <c r="C13">
-        <v>1.367006220356732</v>
+        <v>2.05659795661727</v>
       </c>
     </row>
     <row r="14">
       <c r="A14">
-        <v>2020</v>
+        <v>2021</v>
       </c>
       <c r="B14" t="inlineStr">
         <is>
@@ -568,12 +568,12 @@
         </is>
       </c>
       <c r="C14">
-        <v>4.213240136087784</v>
+        <v>4.796719963106384</v>
       </c>
     </row>
     <row r="15">
       <c r="A15">
-        <v>2020</v>
+        <v>2021</v>
       </c>
       <c r="B15" t="inlineStr">
         <is>
@@ -581,12 +581,12 @@
         </is>
       </c>
       <c r="C15">
-        <v>2.05659795661727</v>
+        <v>1.609190374080396</v>
       </c>
     </row>
     <row r="16">
       <c r="A16">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="B16" t="inlineStr">
         <is>
@@ -594,12 +594,12 @@
         </is>
       </c>
       <c r="C16">
-        <v>4.796903833906384</v>
+        <v>6.891747253269613</v>
       </c>
     </row>
     <row r="17">
       <c r="A17">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="B17" t="inlineStr">
         <is>
@@ -607,12 +607,12 @@
         </is>
       </c>
       <c r="C17">
-        <v>1.609190374080396</v>
+        <v>2.163679222283241</v>
       </c>
     </row>
     <row r="18">
       <c r="A18">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="B18" t="inlineStr">
         <is>
@@ -620,12 +620,12 @@
         </is>
       </c>
       <c r="C18">
-        <v>6.892094282469613</v>
+        <v>8.434045120493945</v>
       </c>
     </row>
     <row r="19">
       <c r="A19">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="B19" t="inlineStr">
         <is>
@@ -633,12 +633,12 @@
         </is>
       </c>
       <c r="C19">
-        <v>2.163679222283241</v>
+        <v>2.459294444544891</v>
       </c>
     </row>
     <row r="20">
       <c r="A20">
-        <v>2023</v>
+        <v>2024</v>
       </c>
       <c r="B20" t="inlineStr">
         <is>
@@ -646,12 +646,12 @@
         </is>
       </c>
       <c r="C20">
-        <v>8.434045120493945</v>
+        <v>9.262027601777</v>
       </c>
     </row>
     <row r="21">
       <c r="A21">
-        <v>2023</v>
+        <v>2024</v>
       </c>
       <c r="B21" t="inlineStr">
         <is>
@@ -659,7 +659,7 @@
         </is>
       </c>
       <c r="C21">
-        <v>2.459294444544891</v>
+        <v>2.102321680597038</v>
       </c>
     </row>
   </sheetData>

--- a/xlsx/nor_oda_climate_tenyear.xlsx
+++ b/xlsx/nor_oda_climate_tenyear.xlsx
@@ -646,7 +646,7 @@
         </is>
       </c>
       <c r="C20">
-        <v>9.262027601777</v>
+        <v>9.254400124977</v>
       </c>
     </row>
     <row r="21">

--- a/xlsx/nor_oda_climate_tenyear.xlsx
+++ b/xlsx/nor_oda_climate_tenyear.xlsx
@@ -368,7 +368,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Arkfane Figurdata viser data for Bistand til klimaformål (utslippsreduksjon og tilpasning), fordelt på øremerket støtte og multilateral kjernestøtte (beregnet), 2015-2024. Beløp er utbetalinger i NOK mrd.</t>
+          <t>Arkfane Figurdata inneholder data om norsk bistand til klimaformål (utslippsreduksjon og tilpasning), fordelt på øremerket støtte og multilateral kjernestøtte (beregnet). 2015-2024. Beløp er utbetalinger i NOK mrd.</t>
         </is>
       </c>
     </row>

--- a/xlsx/nor_oda_climate_tenyear.xlsx
+++ b/xlsx/nor_oda_climate_tenyear.xlsx
@@ -620,7 +620,7 @@
         </is>
       </c>
       <c r="C18">
-        <v>8.434045120493945</v>
+        <v>8.440529354765889</v>
       </c>
     </row>
     <row r="19">

--- a/xlsx/nor_oda_climate_tenyear.xlsx
+++ b/xlsx/nor_oda_climate_tenyear.xlsx
@@ -412,7 +412,7 @@
         </is>
       </c>
       <c r="C2">
-        <v>4.887449690322312</v>
+        <v>4.887449690322311</v>
       </c>
     </row>
     <row r="3">
@@ -516,7 +516,7 @@
         </is>
       </c>
       <c r="C10">
-        <v>5.231819413617981</v>
+        <v>5.23181941361798</v>
       </c>
     </row>
     <row r="11">
@@ -633,7 +633,7 @@
         </is>
       </c>
       <c r="C19">
-        <v>2.459294444544891</v>
+        <v>2.45929444454489</v>
       </c>
     </row>
     <row r="20">
@@ -646,7 +646,7 @@
         </is>
       </c>
       <c r="C20">
-        <v>9.254400124977</v>
+        <v>9.994808838848563</v>
       </c>
     </row>
     <row r="21">
